--- a/Wahlen.xlsx
+++ b/Wahlen.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewanz\Desktop\Open Campus\Gruppe-4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1423A452-33FF-4B85-86A6-BADC49977726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="80" windowWidth="18900" windowHeight="7340"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,55 +22,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
-    <t>Datum,Wahlen</t>
-  </si>
-  <si>
-    <t>2018-05-06,1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Kommunalwahl</t>
-  </si>
-  <si>
-    <t>2013-05-26,1</t>
-  </si>
-  <si>
-    <t>2017-05-07,1</t>
   </si>
   <si>
     <t>Landtag</t>
   </si>
   <si>
-    <t>2012-05-06,1</t>
-  </si>
-  <si>
-    <t>2017-09-24,1</t>
-  </si>
-  <si>
     <t>Bundestag</t>
-  </si>
-  <si>
-    <t>2013-09-22,1</t>
-  </si>
-  <si>
-    <t>2014-05-25,1</t>
   </si>
   <si>
     <t>Europawahl</t>
   </si>
   <si>
-    <t xml:space="preserve">2019-05-26,1 </t>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Wahl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +84,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,9 +136,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,9 +222,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,89 +415,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>41035</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41420</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>41539</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>41784</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42862</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43002</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43226</v>
+      </c>
       <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43611</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -480,24 +506,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Wahlen.xlsx
+++ b/Wahlen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewanz\Desktop\Open Campus\Gruppe-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\01_MSc\opencampus_Data Science with R\Gruppenarbeit\Gruppe-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1423A452-33FF-4B85-86A6-BADC49977726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021179D0-DDDF-441E-901D-A7CECCBF9914}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Kommunalwahl</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Wahl</t>
+  </si>
+  <si>
+    <t>Wahltyp</t>
   </si>
 </sst>
 </file>
@@ -75,9 +78,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -416,87 +420,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41035</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41420</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41539</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41784</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42862</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43002</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43226</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43611</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
